--- a/outputs/output_input.xlsx
+++ b/outputs/output_input.xlsx
@@ -564,12 +564,12 @@
           <t>08/06/2024 19:25:08</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Vikkina. Tanustan</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -587,12 +587,12 @@
           <t>08/06/2024 19:25:48</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Vikkina. Tanustan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -610,12 +610,12 @@
           <t>08/06/2024 19:26:19</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Vikkina. Tanustan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -794,12 +794,12 @@
           <t>08/06/2024 20:13:18</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">Subarna Sivaneswararasa </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -886,12 +886,12 @@
           <t>08/06/2024 20:18:41</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">Subarna Sivaneswararasa </t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1116,12 +1116,12 @@
           <t>08/06/2024 20:37:04</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Shanjayan Athurja</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -1162,12 +1162,12 @@
           <t>08/06/2024 20:37:55</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Shanjayan Athurja</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -1185,12 +1185,12 @@
           <t>08/06/2024 20:38:36</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Shanjayan Athurja</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -1277,7 +1277,7 @@
           <t>08/06/2024 20:50:12</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>J.Danushka</t>
         </is>
@@ -1300,7 +1300,7 @@
           <t>08/06/2024 20:52:20</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>J.Danushka</t>
         </is>
@@ -1443,7 +1443,7 @@
           <t>Mathipalan jaliny</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -1466,7 +1466,7 @@
           <t xml:space="preserve">Mathipalan jaliny </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -1558,7 +1558,7 @@
           <t>Anantharaj Theboral</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>272</t>
         </is>
@@ -1673,7 +1673,7 @@
           <t>Balasubramaniyam Thanusuyan</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>221</t>
         </is>
@@ -1696,7 +1696,7 @@
           <t xml:space="preserve">Balasubramaniyam Thanusuyan </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>221</t>
         </is>
@@ -1765,7 +1765,7 @@
           <t>Sivanathan. Puvithira</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>272</t>
         </is>
@@ -1990,7 +1990,7 @@
           <t>09/06/2024 06:57:21</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Ranjan Theepiha</t>
         </is>
@@ -2063,7 +2063,7 @@
           <t>09/06/2024 07:18:05</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Ranjan Theepiha</t>
         </is>
@@ -2114,7 +2114,7 @@
           <t>Rasinathan Ladhurshani</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>288</t>
         </is>
@@ -2155,12 +2155,12 @@
           <t>09/06/2024 07:23:34</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">Rasinathan dhanushkana </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>271</t>
         </is>
@@ -2183,7 +2183,7 @@
           <t xml:space="preserve">Rasinathan Ladhurshani </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>288</t>
         </is>
@@ -2201,12 +2201,12 @@
           <t>09/06/2024 07:25:04</t>
         </is>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">Rasinathan dhanushkana </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>271</t>
         </is>
